--- a/data/panelapp/uk/Deafness and congenital structural abnormalities.xlsx
+++ b/data/panelapp/uk/Deafness and congenital structural abnormalities.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158244</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158255</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158259</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158261</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158264</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158267</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158270</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158272</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158275</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158278</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158280</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158283</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158285</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158288</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158291</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158293</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158296</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158298</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158301</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158304</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158306</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158309</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158311</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158314</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158316</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158319</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158322</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158324</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158327</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158329</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158332</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158334</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158337</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158340</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158342</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158345</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158347</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158350</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158352</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158355</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158358</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158360</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158363</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158365</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158368</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158371</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158373</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158376</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158378</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158381</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158383</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158386</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Deafness and congenital structural abnormalities</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158389</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1802,6 +2072,11 @@
       <c r="E55" t="inlineStr">
         <is>
           <t>Deafness and congenital structural abnormalities</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:39:26.158392</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/uk/Deafness and congenital structural abnormalities.xlsx
+++ b/data/panelapp/uk/Deafness and congenital structural abnormalities.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158244</t>
+          <t>2021-10-05 14:19:57.999594</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158255</t>
+          <t>2021-10-05 14:19:57.999602</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158259</t>
+          <t>2021-10-05 14:19:57.999606</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158261</t>
+          <t>2021-10-05 14:19:57.999608</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158264</t>
+          <t>2021-10-05 14:19:57.999612</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158267</t>
+          <t>2021-10-05 14:19:57.999614</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158270</t>
+          <t>2021-10-05 14:19:57.999617</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158272</t>
+          <t>2021-10-05 14:19:57.999620</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158275</t>
+          <t>2021-10-05 14:19:57.999624</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158278</t>
+          <t>2021-10-05 14:19:57.999626</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158280</t>
+          <t>2021-10-05 14:19:57.999629</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158283</t>
+          <t>2021-10-05 14:19:57.999632</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158285</t>
+          <t>2021-10-05 14:19:57.999635</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158288</t>
+          <t>2021-10-05 14:19:57.999637</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158291</t>
+          <t>2021-10-05 14:19:57.999640</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158293</t>
+          <t>2021-10-05 14:19:57.999643</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158296</t>
+          <t>2021-10-05 14:19:57.999646</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158298</t>
+          <t>2021-10-05 14:19:57.999649</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158301</t>
+          <t>2021-10-05 14:19:57.999651</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158304</t>
+          <t>2021-10-05 14:19:57.999654</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158306</t>
+          <t>2021-10-05 14:19:57.999657</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158309</t>
+          <t>2021-10-05 14:19:57.999659</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158311</t>
+          <t>2021-10-05 14:19:57.999662</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158314</t>
+          <t>2021-10-05 14:19:57.999665</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158316</t>
+          <t>2021-10-05 14:19:57.999668</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158319</t>
+          <t>2021-10-05 14:19:57.999671</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158322</t>
+          <t>2021-10-05 14:19:57.999673</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158324</t>
+          <t>2021-10-05 14:19:57.999676</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158327</t>
+          <t>2021-10-05 14:19:57.999679</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158329</t>
+          <t>2021-10-05 14:19:57.999681</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158332</t>
+          <t>2021-10-05 14:19:57.999684</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158334</t>
+          <t>2021-10-05 14:19:57.999687</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158337</t>
+          <t>2021-10-05 14:19:57.999690</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158340</t>
+          <t>2021-10-05 14:19:57.999693</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158342</t>
+          <t>2021-10-05 14:19:57.999695</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158345</t>
+          <t>2021-10-05 14:19:57.999698</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158347</t>
+          <t>2021-10-05 14:19:57.999701</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158350</t>
+          <t>2021-10-05 14:19:57.999703</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158352</t>
+          <t>2021-10-05 14:19:57.999706</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158355</t>
+          <t>2021-10-05 14:19:57.999709</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158358</t>
+          <t>2021-10-05 14:19:57.999712</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158360</t>
+          <t>2021-10-05 14:19:57.999715</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158363</t>
+          <t>2021-10-05 14:19:57.999718</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158365</t>
+          <t>2021-10-05 14:19:57.999720</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158368</t>
+          <t>2021-10-05 14:19:57.999723</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158371</t>
+          <t>2021-10-05 14:19:57.999726</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158373</t>
+          <t>2021-10-05 14:19:57.999728</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158376</t>
+          <t>2021-10-05 14:19:57.999731</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158378</t>
+          <t>2021-10-05 14:19:57.999734</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158381</t>
+          <t>2021-10-05 14:19:57.999737</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158383</t>
+          <t>2021-10-05 14:19:57.999739</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158386</t>
+          <t>2021-10-05 14:19:57.999742</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158389</t>
+          <t>2021-10-05 14:19:57.999745</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,91 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:26.158392</t>
+          <t>2021-10-05 14:19:57.999749</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Deafness and congenital structural abnormalities</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>251</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2019-06-20T15:10:56.166309Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:19:57.996333</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/251/?format=json</t>
         </is>
       </c>
     </row>
